--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43740</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44909</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>43619</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17222,7 +17222,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17279,7 +17279,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17879,7 +17879,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19059,7 +19059,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19178,7 +19178,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24879,7 +24879,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29601,7 +29601,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29658,7 +29658,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29715,7 +29715,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29772,7 +29772,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29829,7 +29829,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30000,7 +30000,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30947,7 +30947,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31061,7 +31061,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34764,7 +34764,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35049,7 +35049,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35163,7 +35163,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35282,7 +35282,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35406,7 +35406,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35820,7 +35820,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35877,7 +35877,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35934,7 +35934,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35991,7 +35991,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36048,7 +36048,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36110,7 +36110,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36234,7 +36234,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36524,7 +36524,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36586,7 +36586,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36648,7 +36648,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36772,7 +36772,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -614,13 +614,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -629,9 +629,11 @@
 Lakritsmusseron
 Lammticka
 Frygisk spindling
+Gultoppig fingersvamp
 Mjölsvärting
 Orange taggsvamp
 Skrovlig taggsvamp
+Talltaggsvamp
 Dropptaggsvamp
 Gullgröppa
 Strimspindling
@@ -678,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,14 +879,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 51534-2019</t>
+          <t>A 27718-2019</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43740</v>
+        <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -896,40 +898,138 @@
           <t>RÄTTVIK</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>6.7</v>
+        <v>46.1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>9</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Kritporing
+Smalfotad taggsvamp
+Kolflarnlav
+Kortskaftad ärgspik
+Mörk kolflarnlav
+Spillkråka
+Vaddporing
+Vedskivlav
+Jättesvampmal</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 27718-2019.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 27718-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 51534-2019</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RÄTTVIK</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Kolflarnlav
@@ -942,92 +1042,92 @@
 Violettgrå tagellav</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 51534-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 51534-2019.png")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 51534-2019.docx")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 51534-2019.docx")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 51534-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 51534-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 60128-2022</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44909</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>RÄTTVIK</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RÄTTVIK</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>5.2</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>7</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>8</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Dvärgbägarlav
@@ -1039,127 +1139,31 @@
 Björksplintborre</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60128-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60128-2022.png")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60128-2022.docx")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60128-2022.docx")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60128-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60128-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 27718-2019</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>43619</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>RÄTTVIK</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Kritporing
-Kolflarnlav
-Kortskaftad ärgspik
-Mörk kolflarnlav
-Spillkråka
-Vedskivlav
-Jättesvampmal</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 27718-2019.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 27718-2019.png")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1170,7 +1174,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1265,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1358,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,7 +1450,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1533,7 +1537,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1633,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1720,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1803,7 +1807,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1895,7 +1899,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1987,7 +1991,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2074,7 +2078,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2160,7 +2164,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2249,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2334,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2415,7 +2419,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2500,7 +2504,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2585,7 +2589,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2670,7 +2674,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2760,7 +2764,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2845,7 +2849,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2935,7 +2939,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3020,7 +3024,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3114,7 +3118,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3204,7 +3208,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3294,7 +3298,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3388,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3469,7 +3473,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3554,7 +3558,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3611,7 +3615,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3672,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3725,7 +3729,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3782,7 +3786,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3839,7 +3843,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3896,7 +3900,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3953,7 +3957,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4010,7 +4014,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4067,7 +4071,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4124,7 +4128,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4181,7 +4185,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4238,7 +4242,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4295,7 +4299,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4352,7 +4356,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4409,7 +4413,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4471,7 +4475,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4528,7 +4532,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4585,7 +4589,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4642,7 +4646,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4699,7 +4703,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4756,7 +4760,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4813,7 +4817,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4870,7 +4874,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4927,7 +4931,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4984,7 +4988,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5041,7 +5045,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5098,7 +5102,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5155,7 +5159,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5212,7 +5216,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5269,7 +5273,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5326,7 +5330,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5383,7 +5387,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5445,7 +5449,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5507,7 +5511,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5569,7 +5573,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5631,7 +5635,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5688,7 +5692,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5750,7 +5754,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5807,7 +5811,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5864,7 +5868,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5921,7 +5925,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5978,7 +5982,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6035,7 +6039,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6097,7 +6101,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6154,7 +6158,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6211,7 +6215,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6268,7 +6272,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6325,7 +6329,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6382,7 +6386,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6439,7 +6443,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6496,7 +6500,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6553,7 +6557,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6614,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6671,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6724,7 +6728,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6786,7 +6790,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6848,7 +6852,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6910,7 +6914,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6967,7 +6971,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7024,7 +7028,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7081,7 +7085,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7143,7 +7147,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7200,7 +7204,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7257,7 +7261,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7314,7 +7318,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7371,7 +7375,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7428,7 +7432,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7485,7 +7489,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7542,7 +7546,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7604,7 +7608,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7661,7 +7665,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7718,7 +7722,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7775,7 +7779,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7832,7 +7836,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7889,7 +7893,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7946,7 +7950,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8003,7 +8007,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8065,7 +8069,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8122,7 +8126,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8179,7 +8183,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8241,7 +8245,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8298,7 +8302,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8355,7 +8359,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8417,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8479,7 +8483,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8536,7 +8540,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8593,7 +8597,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8650,7 +8654,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8707,7 +8711,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8764,7 +8768,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8821,7 +8825,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8878,7 +8882,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8935,7 +8939,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8992,7 +8996,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9049,7 +9053,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9106,7 +9110,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9163,7 +9167,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9220,7 +9224,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9282,7 +9286,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9339,7 +9343,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9396,7 +9400,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9458,7 +9462,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9520,7 +9524,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9577,7 +9581,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9634,7 +9638,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9691,7 +9695,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9748,7 +9752,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9805,7 +9809,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9867,7 +9871,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9929,7 +9933,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9991,7 +9995,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10048,7 +10052,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10105,7 +10109,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10162,7 +10166,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10219,7 +10223,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10276,7 +10280,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10333,7 +10337,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10415,7 +10419,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10477,7 +10481,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10539,7 +10543,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10601,7 +10605,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10658,7 +10662,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10720,7 +10724,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10782,7 +10786,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10839,7 +10843,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10901,7 +10905,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10958,7 +10962,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11015,7 +11019,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11077,7 +11081,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11134,7 +11138,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11191,7 +11195,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11248,7 +11252,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11305,7 +11309,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11362,7 +11366,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11419,7 +11423,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11476,7 +11480,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11533,7 +11537,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11590,7 +11594,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11651,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11704,7 +11708,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11761,7 +11765,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11823,7 +11827,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11880,7 +11884,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11937,7 +11941,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11999,7 +12003,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12056,7 +12060,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12118,7 +12122,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12175,7 +12179,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12232,7 +12236,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12289,7 +12293,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12351,7 +12355,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12408,7 +12412,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12465,7 +12469,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12522,7 +12526,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12579,7 +12583,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12636,7 +12640,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12698,7 +12702,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12755,7 +12759,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12812,7 +12816,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12869,7 +12873,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12926,7 +12930,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12983,7 +12987,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13040,7 +13044,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13097,7 +13101,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13154,7 +13158,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13211,7 +13215,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13268,7 +13272,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13330,7 +13334,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13387,7 +13391,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13449,7 +13453,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13506,7 +13510,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13563,7 +13567,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13620,7 +13624,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13682,7 +13686,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13739,7 +13743,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13796,7 +13800,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13853,7 +13857,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13910,7 +13914,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13967,7 +13971,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14024,7 +14028,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14081,7 +14085,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14138,7 +14142,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14195,7 +14199,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14252,7 +14256,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14309,7 +14313,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14371,7 +14375,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14428,7 +14432,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14490,7 +14494,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14547,7 +14551,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14604,7 +14608,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14666,7 +14670,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14723,7 +14727,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14785,7 +14789,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14847,7 +14851,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14909,7 +14913,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14966,7 +14970,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15028,7 +15032,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15085,7 +15089,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15142,7 +15146,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15199,7 +15203,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15256,7 +15260,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15313,7 +15317,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15375,7 +15379,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15432,7 +15436,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15489,7 +15493,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15546,7 +15550,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15603,7 +15607,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15665,7 +15669,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15727,7 +15731,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15789,7 +15793,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15851,7 +15855,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15913,7 +15917,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15975,7 +15979,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16032,7 +16036,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16089,7 +16093,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16146,7 +16150,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16203,7 +16207,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16260,7 +16264,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16317,7 +16321,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16379,7 +16383,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16441,7 +16445,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16503,7 +16507,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16560,7 +16564,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16622,7 +16626,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16679,7 +16683,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16736,7 +16740,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16793,7 +16797,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16855,7 +16859,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16917,7 +16921,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16979,7 +16983,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17041,7 +17045,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17098,7 +17102,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17160,7 +17164,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17222,7 +17226,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17279,7 +17283,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17341,7 +17345,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17403,7 +17407,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17465,7 +17469,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17522,7 +17526,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17579,7 +17583,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17636,7 +17640,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17693,7 +17697,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17755,7 +17759,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17817,7 +17821,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17879,7 +17883,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17941,7 +17945,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18003,7 +18007,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18065,7 +18069,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18122,7 +18126,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18179,7 +18183,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18236,7 +18240,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18293,7 +18297,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18350,7 +18354,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18407,7 +18411,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18464,7 +18468,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18526,7 +18530,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18587,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18649,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18707,7 +18711,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18768,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18821,7 +18825,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18878,7 +18882,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18935,7 +18939,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18997,7 +19001,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19059,7 +19063,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19116,7 +19120,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19178,7 +19182,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19235,7 +19239,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19292,7 +19296,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19349,7 +19353,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19406,7 +19410,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19463,7 +19467,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19520,7 +19524,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19577,7 +19581,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19634,7 +19638,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19696,7 +19700,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19758,7 +19762,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19815,7 +19819,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19877,7 +19881,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19939,7 +19943,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20001,7 +20005,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20063,7 +20067,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20125,7 +20129,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20187,7 +20191,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20244,7 +20248,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20301,7 +20305,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20358,7 +20362,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20415,7 +20419,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20477,7 +20481,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20534,7 +20538,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20591,7 +20595,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20648,7 +20652,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20705,7 +20709,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20762,7 +20766,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20819,7 +20823,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20876,7 +20880,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20933,7 +20937,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20990,7 +20994,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21047,7 +21051,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21104,7 +21108,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21161,7 +21165,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21218,7 +21222,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21275,7 +21279,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21332,7 +21336,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21389,7 +21393,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21446,7 +21450,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21503,7 +21507,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21560,7 +21564,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21617,7 +21621,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21674,7 +21678,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21731,7 +21735,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21788,7 +21792,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21845,7 +21849,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21902,7 +21906,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21959,7 +21963,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22016,7 +22020,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22073,7 +22077,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22130,7 +22134,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22187,7 +22191,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22244,7 +22248,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22301,7 +22305,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22358,7 +22362,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22415,7 +22419,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22472,7 +22476,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22529,7 +22533,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22586,7 +22590,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22643,7 +22647,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22700,7 +22704,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22757,7 +22761,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22814,7 +22818,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22871,7 +22875,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22933,7 +22937,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22990,7 +22994,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23047,7 +23051,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23104,7 +23108,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23166,7 +23170,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23223,7 +23227,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23280,7 +23284,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23337,7 +23341,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23394,7 +23398,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23451,7 +23455,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23508,7 +23512,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23565,7 +23569,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23622,7 +23626,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23679,7 +23683,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23736,7 +23740,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23793,7 +23797,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23855,7 +23859,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23917,7 +23921,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23974,7 +23978,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24036,7 +24040,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24098,7 +24102,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24155,7 +24159,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24217,7 +24221,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24279,7 +24283,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24341,7 +24345,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24398,7 +24402,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24455,7 +24459,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24517,7 +24521,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24574,7 +24578,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24636,7 +24640,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24693,7 +24697,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24755,7 +24759,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24817,7 +24821,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24879,7 +24883,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24936,7 +24940,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24998,7 +25002,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25060,7 +25064,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25122,7 +25126,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25184,7 +25188,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25241,7 +25245,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25303,7 +25307,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25365,7 +25369,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25431,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25488,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25545,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25602,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25659,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25716,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25773,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25831,7 +25835,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25892,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25950,7 +25954,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26012,7 +26016,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26074,7 +26078,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26131,7 +26135,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26188,7 +26192,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26245,7 +26249,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26302,7 +26306,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26359,7 +26363,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26416,7 +26420,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26473,7 +26477,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26530,7 +26534,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26587,7 +26591,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26644,7 +26648,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26701,7 +26705,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26758,7 +26762,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26815,7 +26819,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26872,7 +26876,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26929,7 +26933,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26986,7 +26990,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27043,7 +27047,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27100,7 +27104,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27162,7 +27166,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27219,7 +27223,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27276,7 +27280,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27333,7 +27337,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27395,7 +27399,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27452,7 +27456,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27509,7 +27513,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27566,7 +27570,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27623,7 +27627,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27680,7 +27684,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27737,7 +27741,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27794,7 +27798,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27851,7 +27855,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27908,7 +27912,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27965,7 +27969,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28022,7 +28026,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28079,7 +28083,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28136,7 +28140,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28193,7 +28197,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28250,7 +28254,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28307,7 +28311,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28369,7 +28373,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28431,7 +28435,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28488,7 +28492,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28550,7 +28554,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28607,7 +28611,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28664,7 +28668,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28721,7 +28725,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28783,7 +28787,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28845,7 +28849,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28902,7 +28906,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28964,7 +28968,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29021,7 +29025,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29083,7 +29087,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29140,7 +29144,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29197,7 +29201,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29254,7 +29258,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29311,7 +29315,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29373,7 +29377,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29430,7 +29434,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29487,7 +29491,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29544,7 +29548,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29601,7 +29605,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29658,7 +29662,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29715,7 +29719,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29772,7 +29776,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29829,7 +29833,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29886,7 +29890,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29943,7 +29947,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30000,7 +30004,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30082,7 +30086,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30139,7 +30143,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30196,7 +30200,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30258,7 +30262,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30315,7 +30319,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30377,7 +30381,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30434,7 +30438,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30491,7 +30495,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30548,7 +30552,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30605,7 +30609,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30662,7 +30666,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30719,7 +30723,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30776,7 +30780,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30833,7 +30837,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30890,7 +30894,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30947,7 +30951,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31004,7 +31008,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31061,7 +31065,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31118,7 +31122,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31180,7 +31184,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31237,7 +31241,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31294,7 +31298,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31351,7 +31355,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31413,7 +31417,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31475,7 +31479,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31532,7 +31536,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31589,7 +31593,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31646,7 +31650,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31703,7 +31707,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31760,7 +31764,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31822,7 +31826,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31879,7 +31883,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31936,7 +31940,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31993,7 +31997,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32050,7 +32054,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32107,7 +32111,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32164,7 +32168,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32221,7 +32225,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32278,7 +32282,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32335,7 +32339,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32397,7 +32401,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32479,7 +32483,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32536,7 +32540,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32593,7 +32597,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32650,7 +32654,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32707,7 +32711,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32764,7 +32768,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32821,7 +32825,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32878,7 +32882,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32935,7 +32939,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32992,7 +32996,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33049,7 +33053,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33106,7 +33110,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33163,7 +33167,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33220,7 +33224,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33277,7 +33281,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33334,7 +33338,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33391,7 +33395,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33448,7 +33452,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33505,7 +33509,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33562,7 +33566,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33619,7 +33623,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33676,7 +33680,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33733,7 +33737,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33790,7 +33794,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33847,7 +33851,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33904,7 +33908,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33961,7 +33965,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34018,7 +34022,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34075,7 +34079,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34132,7 +34136,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34189,7 +34193,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34246,7 +34250,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34303,7 +34307,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34360,7 +34364,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34417,7 +34421,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34474,7 +34478,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34531,7 +34535,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34588,7 +34592,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34645,7 +34649,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34702,7 +34706,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34764,7 +34768,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34821,7 +34825,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34878,7 +34882,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34935,7 +34939,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34992,7 +34996,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35049,7 +35053,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35106,7 +35110,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35163,7 +35167,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35220,7 +35224,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35282,7 +35286,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35344,7 +35348,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35406,7 +35410,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35468,7 +35472,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35525,7 +35529,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35582,7 +35586,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35639,7 +35643,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35696,7 +35700,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35758,7 +35762,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35820,7 +35824,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35877,7 +35881,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35934,7 +35938,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35991,7 +35995,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36048,7 +36052,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36110,7 +36114,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36172,7 +36176,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36234,7 +36238,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36291,7 +36295,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36348,7 +36352,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36410,7 +36414,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36467,7 +36471,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36524,7 +36528,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36586,7 +36590,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36648,7 +36652,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36710,7 +36714,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36772,7 +36776,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36829,7 +36833,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36886,7 +36890,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36943,7 +36947,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,14 +879,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 27718-2019</t>
+          <t>A 51534-2019</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43619</v>
+        <v>43740</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -898,138 +898,40 @@
           <t>RÄTTVIK</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>46.1</v>
+        <v>6.7</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>9</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Kritporing
-Smalfotad taggsvamp
-Kolflarnlav
-Kortskaftad ärgspik
-Mörk kolflarnlav
-Spillkråka
-Vaddporing
-Vedskivlav
-Jättesvampmal</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 27718-2019.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 27718-2019.png")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 51534-2019</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>43740</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>RÄTTVIK</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>9</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Kolflarnlav
@@ -1042,92 +944,92 @@
 Violettgrå tagellav</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 51534-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 51534-2019.png")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 51534-2019.docx")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 51534-2019.docx")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 51534-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 51534-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 60128-2022</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44909</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>RÄTTVIK</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C6" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RÄTTVIK</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G6" t="n">
         <v>5.2</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J6" t="n">
         <v>6</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>7</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q6" t="n">
         <v>8</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Dvärgbägarlav
@@ -1139,31 +1041,127 @@
 Björksplintborre</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60128-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60128-2022.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60128-2022.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60128-2022.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60128-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60128-2022.docx")</f>
         <v/>
       </c>
     </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 27718-2019</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>43619</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RÄTTVIK</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Kritporing
+Kolflarnlav
+Kortskaftad ärgspik
+Mörk kolflarnlav
+Spillkråka
+Vedskivlav
+Jättesvampmal</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 27718-2019.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 27718-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1174,7 +1172,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1263,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1356,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1448,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1535,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1631,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1720,7 +1718,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1805,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1897,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1989,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2076,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2164,7 +2162,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2247,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2334,7 +2332,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2419,7 +2417,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2502,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2587,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2672,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2762,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2847,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2937,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3022,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3116,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3206,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3296,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3388,7 +3386,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3471,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3558,7 +3556,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3615,7 +3613,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3672,7 +3670,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3729,7 +3727,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3786,7 +3784,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3843,7 +3841,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3898,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3955,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4012,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4071,7 +4069,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4128,7 +4126,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4185,7 +4183,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4242,7 +4240,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4299,7 +4297,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4356,7 +4354,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4413,7 +4411,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4475,7 +4473,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4532,7 +4530,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4589,7 +4587,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4646,7 +4644,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4703,7 +4701,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4760,7 +4758,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4817,7 +4815,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4874,7 +4872,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4931,7 +4929,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4988,7 +4986,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5045,7 +5043,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5100,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5159,7 +5157,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5214,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5273,7 +5271,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5330,7 +5328,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5387,7 +5385,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5449,7 +5447,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5509,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5573,7 +5571,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5633,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5690,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5752,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5811,7 +5809,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5868,7 +5866,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5980,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6037,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6101,7 +6099,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6156,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6213,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6270,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6327,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6384,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6441,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6498,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6557,7 +6555,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6614,7 +6612,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6671,7 +6669,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6726,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6788,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6852,7 +6850,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6914,7 +6912,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6971,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7028,7 +7026,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7147,7 +7145,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7204,7 +7202,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7261,7 +7259,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7318,7 +7316,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7375,7 +7373,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7432,7 +7430,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7487,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7546,7 +7544,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7606,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7663,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7720,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7779,7 +7777,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7836,7 +7834,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7893,7 +7891,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7950,7 +7948,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8007,7 +8005,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8067,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8124,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8181,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8243,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8300,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8357,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8421,7 +8419,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8483,7 +8481,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8540,7 +8538,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8597,7 +8595,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8654,7 +8652,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8711,7 +8709,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8768,7 +8766,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8825,7 +8823,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8882,7 +8880,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8939,7 +8937,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8996,7 +8994,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9053,7 +9051,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9110,7 +9108,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9167,7 +9165,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9224,7 +9222,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9286,7 +9284,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9343,7 +9341,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9398,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9462,7 +9460,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9524,7 +9522,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9581,7 +9579,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9638,7 +9636,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9693,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9752,7 +9750,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9809,7 +9807,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9871,7 +9869,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9933,7 +9931,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9995,7 +9993,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10052,7 +10050,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10109,7 +10107,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10166,7 +10164,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10223,7 +10221,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10280,7 +10278,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10337,7 +10335,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10419,7 +10417,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10479,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10543,7 +10541,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10605,7 +10603,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10662,7 +10660,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10724,7 +10722,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10784,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10841,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10905,7 +10903,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10960,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11017,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11081,7 +11079,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11136,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11193,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11250,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11307,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11364,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11421,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11478,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11535,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11592,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11649,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11708,7 +11706,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11765,7 +11763,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11825,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11882,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11939,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12003,7 +12001,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12060,7 +12058,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12122,7 +12120,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12179,7 +12177,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12236,7 +12234,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12293,7 +12291,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12355,7 +12353,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12410,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12469,7 +12467,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12526,7 +12524,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,7 +12581,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12640,7 +12638,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12702,7 +12700,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12759,7 +12757,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12816,7 +12814,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12873,7 +12871,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12930,7 +12928,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12987,7 +12985,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13044,7 +13042,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13101,7 +13099,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13158,7 +13156,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13215,7 +13213,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13272,7 +13270,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13332,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13389,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13453,7 +13451,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13510,7 +13508,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13567,7 +13565,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13624,7 +13622,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13686,7 +13684,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13743,7 +13741,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13800,7 +13798,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13857,7 +13855,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13914,7 +13912,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13971,7 +13969,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14028,7 +14026,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14085,7 +14083,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14142,7 +14140,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14199,7 +14197,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14256,7 +14254,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14313,7 +14311,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14375,7 +14373,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14432,7 +14430,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14494,7 +14492,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14551,7 +14549,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14608,7 +14606,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14670,7 +14668,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14727,7 +14725,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14789,7 +14787,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14851,7 +14849,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14913,7 +14911,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14970,7 +14968,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15032,7 +15030,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15089,7 +15087,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15146,7 +15144,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15203,7 +15201,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15260,7 +15258,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15317,7 +15315,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15379,7 +15377,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15436,7 +15434,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15493,7 +15491,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15550,7 +15548,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15607,7 +15605,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15669,7 +15667,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15731,7 +15729,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15793,7 +15791,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15855,7 +15853,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15917,7 +15915,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15979,7 +15977,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16036,7 +16034,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16093,7 +16091,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16150,7 +16148,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16207,7 +16205,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16264,7 +16262,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16321,7 +16319,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16383,7 +16381,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16445,7 +16443,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16507,7 +16505,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16564,7 +16562,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16626,7 +16624,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16683,7 +16681,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16740,7 +16738,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16797,7 +16795,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16859,7 +16857,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16921,7 +16919,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16983,7 +16981,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17045,7 +17043,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17102,7 +17100,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17164,7 +17162,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17226,7 +17224,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17283,7 +17281,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17345,7 +17343,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17407,7 +17405,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17469,7 +17467,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17526,7 +17524,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17583,7 +17581,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17640,7 +17638,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17697,7 +17695,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17759,7 +17757,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17821,7 +17819,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17883,7 +17881,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17945,7 +17943,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18007,7 +18005,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18069,7 +18067,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18126,7 +18124,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18183,7 +18181,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18240,7 +18238,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18297,7 +18295,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18354,7 +18352,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18411,7 +18409,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18468,7 +18466,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18530,7 +18528,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18587,7 +18585,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18647,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18711,7 +18709,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18766,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18823,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18880,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18939,7 +18937,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +18999,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19061,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19118,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19180,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19237,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19294,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19351,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19408,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19465,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19522,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19579,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19636,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19698,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19762,7 +19760,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19817,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19879,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19941,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20005,7 +20003,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20067,7 +20065,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20129,7 +20127,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20191,7 +20189,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20248,7 +20246,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20305,7 +20303,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20362,7 +20360,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20419,7 +20417,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20481,7 +20479,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20538,7 +20536,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20595,7 +20593,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20652,7 +20650,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20709,7 +20707,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20766,7 +20764,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20823,7 +20821,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20880,7 +20878,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20937,7 +20935,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20994,7 +20992,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21051,7 +21049,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21108,7 +21106,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21165,7 +21163,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21222,7 +21220,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21277,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21336,7 +21334,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21391,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21448,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21507,7 +21505,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21564,7 +21562,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21621,7 +21619,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21678,7 +21676,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21735,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21792,7 +21790,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21849,7 +21847,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21906,7 +21904,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21963,7 +21961,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22020,7 +22018,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22077,7 +22075,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22134,7 +22132,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22191,7 +22189,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22248,7 +22246,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22305,7 +22303,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22362,7 +22360,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22419,7 +22417,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22476,7 +22474,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22531,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22590,7 +22588,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22647,7 +22645,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22704,7 +22702,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22761,7 +22759,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22818,7 +22816,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22875,7 +22873,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22937,7 +22935,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22994,7 +22992,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23051,7 +23049,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23108,7 +23106,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23168,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23225,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23282,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23341,7 +23339,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23398,7 +23396,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23455,7 +23453,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23512,7 +23510,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23569,7 +23567,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23626,7 +23624,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23683,7 +23681,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23740,7 +23738,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23797,7 +23795,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23859,7 +23857,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23921,7 +23919,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23978,7 +23976,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24040,7 +24038,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24102,7 +24100,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24159,7 +24157,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24219,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24283,7 +24281,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24345,7 +24343,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24402,7 +24400,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24459,7 +24457,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24521,7 +24519,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24578,7 +24576,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24640,7 +24638,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24697,7 +24695,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24759,7 +24757,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24821,7 +24819,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24883,7 +24881,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24940,7 +24938,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25000,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25064,7 +25062,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25126,7 +25124,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25188,7 +25186,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25245,7 +25243,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25307,7 +25305,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25369,7 +25367,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25431,7 +25429,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25488,7 +25486,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25545,7 +25543,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25602,7 +25600,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25659,7 +25657,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25716,7 +25714,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25773,7 +25771,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25835,7 +25833,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25892,7 +25890,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25954,7 +25952,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26016,7 +26014,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26078,7 +26076,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26135,7 +26133,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26192,7 +26190,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26249,7 +26247,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26306,7 +26304,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26363,7 +26361,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26420,7 +26418,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26477,7 +26475,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26534,7 +26532,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26591,7 +26589,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26648,7 +26646,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26705,7 +26703,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26762,7 +26760,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26819,7 +26817,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26876,7 +26874,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26933,7 +26931,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26990,7 +26988,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27047,7 +27045,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27104,7 +27102,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27166,7 +27164,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27223,7 +27221,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27280,7 +27278,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27337,7 +27335,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27399,7 +27397,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27456,7 +27454,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27513,7 +27511,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27570,7 +27568,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27627,7 +27625,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27684,7 +27682,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27741,7 +27739,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27798,7 +27796,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27855,7 +27853,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27912,7 +27910,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27969,7 +27967,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28026,7 +28024,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28083,7 +28081,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28140,7 +28138,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28197,7 +28195,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28254,7 +28252,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28311,7 +28309,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28373,7 +28371,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28435,7 +28433,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28492,7 +28490,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28554,7 +28552,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28611,7 +28609,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28668,7 +28666,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28725,7 +28723,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28787,7 +28785,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28849,7 +28847,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28906,7 +28904,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28968,7 +28966,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29025,7 +29023,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29087,7 +29085,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29144,7 +29142,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29201,7 +29199,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29258,7 +29256,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29315,7 +29313,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29377,7 +29375,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29434,7 +29432,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29491,7 +29489,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29548,7 +29546,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29605,7 +29603,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29662,7 +29660,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29719,7 +29717,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29776,7 +29774,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29833,7 +29831,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29890,7 +29888,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29947,7 +29945,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30004,7 +30002,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30086,7 +30084,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30143,7 +30141,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30200,7 +30198,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30262,7 +30260,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30319,7 +30317,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30381,7 +30379,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30438,7 +30436,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30495,7 +30493,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30552,7 +30550,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30609,7 +30607,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30666,7 +30664,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30723,7 +30721,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30780,7 +30778,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30837,7 +30835,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30894,7 +30892,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30951,7 +30949,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31008,7 +31006,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31065,7 +31063,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31122,7 +31120,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31184,7 +31182,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31241,7 +31239,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31298,7 +31296,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31355,7 +31353,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31417,7 +31415,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31479,7 +31477,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31536,7 +31534,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31593,7 +31591,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31650,7 +31648,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31707,7 +31705,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31764,7 +31762,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31826,7 +31824,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31883,7 +31881,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31940,7 +31938,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31997,7 +31995,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32054,7 +32052,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32111,7 +32109,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32168,7 +32166,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32225,7 +32223,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32282,7 +32280,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32339,7 +32337,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32401,7 +32399,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32483,7 +32481,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32540,7 +32538,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32597,7 +32595,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32654,7 +32652,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32711,7 +32709,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32768,7 +32766,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32825,7 +32823,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32882,7 +32880,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32939,7 +32937,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32996,7 +32994,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33053,7 +33051,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33110,7 +33108,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33167,7 +33165,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33224,7 +33222,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33281,7 +33279,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33338,7 +33336,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33395,7 +33393,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33452,7 +33450,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33509,7 +33507,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33566,7 +33564,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33623,7 +33621,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33680,7 +33678,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33737,7 +33735,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33794,7 +33792,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33851,7 +33849,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33908,7 +33906,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33965,7 +33963,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34022,7 +34020,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34079,7 +34077,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34136,7 +34134,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34193,7 +34191,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34250,7 +34248,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34307,7 +34305,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34364,7 +34362,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34421,7 +34419,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34478,7 +34476,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34535,7 +34533,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34592,7 +34590,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34649,7 +34647,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34706,7 +34704,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34768,7 +34766,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34825,7 +34823,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34882,7 +34880,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34939,7 +34937,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34996,7 +34994,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35053,7 +35051,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35110,7 +35108,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35167,7 +35165,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35224,7 +35222,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35286,7 +35284,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35348,7 +35346,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35410,7 +35408,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35472,7 +35470,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35529,7 +35527,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35586,7 +35584,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35643,7 +35641,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35700,7 +35698,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35762,7 +35760,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35824,7 +35822,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35881,7 +35879,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35938,7 +35936,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35995,7 +35993,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36052,7 +36050,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36114,7 +36112,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36176,7 +36174,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36238,7 +36236,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36295,7 +36293,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36352,7 +36350,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36414,7 +36412,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36471,7 +36469,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36528,7 +36526,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36590,7 +36588,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36652,7 +36650,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36714,7 +36712,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36776,7 +36774,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36833,7 +36831,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36890,7 +36888,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36947,7 +36945,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>43740</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>44909</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>43619</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20303,7 +20303,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23681,7 +23681,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23795,7 +23795,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23976,7 +23976,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24157,7 +24157,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25124,7 +25124,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28904,7 +28904,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29603,7 +29603,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29717,7 +29717,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30379,7 +30379,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30436,7 +30436,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30550,7 +30550,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30607,7 +30607,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30778,7 +30778,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30892,7 +30892,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31415,7 +31415,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31477,7 +31477,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31591,7 +31591,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31824,7 +31824,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31938,7 +31938,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31995,7 +31995,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32052,7 +32052,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32109,7 +32109,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32166,7 +32166,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32223,7 +32223,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32280,7 +32280,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32337,7 +32337,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32399,7 +32399,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32538,7 +32538,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32652,7 +32652,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34704,7 +34704,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35408,7 +35408,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35698,7 +35698,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36112,7 +36112,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36174,7 +36174,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36712,7 +36712,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36831,7 +36831,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36888,7 +36888,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -879,14 +879,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 51534-2019</t>
+          <t>A 27718-2019</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43740</v>
+        <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -898,40 +898,138 @@
           <t>RÄTTVIK</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>6.7</v>
+        <v>46.1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>9</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Kritporing
+Smalfotad taggsvamp
+Kolflarnlav
+Kortskaftad ärgspik
+Mörk kolflarnlav
+Spillkråka
+Vaddporing
+Vedskivlav
+Jättesvampmal</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 27718-2019.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 27718-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 27718-2019.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 51534-2019</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>43740</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RÄTTVIK</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Kolflarnlav
@@ -944,92 +1042,92 @@
 Violettgrå tagellav</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 51534-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 51534-2019.png")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 51534-2019.docx")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 51534-2019.docx")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 51534-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 51534-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 60128-2022</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44909</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>RÄTTVIK</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RÄTTVIK</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>5.2</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>7</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>8</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Dvärgbägarlav
@@ -1041,127 +1139,31 @@
 Björksplintborre</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60128-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60128-2022.png")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60128-2022.docx")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60128-2022.docx")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60128-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60128-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 27718-2019</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>43619</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>RÄTTVIK</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Kritporing
-Kolflarnlav
-Kortskaftad ärgspik
-Mörk kolflarnlav
-Spillkråka
-Vedskivlav
-Jättesvampmal</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 27718-2019.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 27718-2019.png")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 27718-2019.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1172,7 +1174,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1263,7 +1265,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1358,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1450,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,7 +1537,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1633,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1718,7 +1720,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1807,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1899,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1989,7 +1991,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2078,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2164,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2247,7 +2249,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2334,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2419,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2504,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2587,7 +2589,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,7 +2674,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2762,7 +2764,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2847,7 +2849,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2937,7 +2939,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3022,7 +3024,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,7 +3118,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3208,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3296,7 +3298,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3386,7 +3388,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3471,7 +3473,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3556,7 +3558,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,7 +3615,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3670,7 +3672,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3727,7 +3729,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3784,7 +3786,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3841,7 +3843,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3898,7 +3900,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3955,7 +3957,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4012,7 +4014,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4069,7 +4071,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4126,7 +4128,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4183,7 +4185,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4240,7 +4242,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4297,7 +4299,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4354,7 +4356,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4411,7 +4413,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4473,7 +4475,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4530,7 +4532,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4587,7 +4589,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4644,7 +4646,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4701,7 +4703,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4758,7 +4760,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4815,7 +4817,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4872,7 +4874,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4929,7 +4931,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4986,7 +4988,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5043,7 +5045,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5100,7 +5102,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5157,7 +5159,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5214,7 +5216,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5271,7 +5273,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5328,7 +5330,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5385,7 +5387,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5447,7 +5449,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5509,7 +5511,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5571,7 +5573,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5633,7 +5635,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5690,7 +5692,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5752,7 +5754,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5809,7 +5811,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5866,7 +5868,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5923,7 +5925,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5980,7 +5982,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6037,7 +6039,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6099,7 +6101,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6156,7 +6158,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6213,7 +6215,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6270,7 +6272,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6327,7 +6329,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6384,7 +6386,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6441,7 +6443,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6498,7 +6500,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6555,7 +6557,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6612,7 +6614,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6669,7 +6671,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6726,7 +6728,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6788,7 +6790,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6850,7 +6852,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6912,7 +6914,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6969,7 +6971,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7026,7 +7028,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7083,7 +7085,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7145,7 +7147,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7202,7 +7204,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7259,7 +7261,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7316,7 +7318,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7373,7 +7375,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7430,7 +7432,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7487,7 +7489,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7544,7 +7546,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7606,7 +7608,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7663,7 +7665,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7720,7 +7722,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7777,7 +7779,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7834,7 +7836,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7891,7 +7893,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7948,7 +7950,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8005,7 +8007,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8067,7 +8069,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8124,7 +8126,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8181,7 +8183,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8243,7 +8245,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8300,7 +8302,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8357,7 +8359,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8419,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8481,7 +8483,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8538,7 +8540,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8595,7 +8597,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8652,7 +8654,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8709,7 +8711,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8766,7 +8768,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8823,7 +8825,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8880,7 +8882,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8937,7 +8939,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8994,7 +8996,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9051,7 +9053,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9108,7 +9110,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9165,7 +9167,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9222,7 +9224,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9284,7 +9286,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9341,7 +9343,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9398,7 +9400,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9460,7 +9462,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9522,7 +9524,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9579,7 +9581,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9636,7 +9638,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9693,7 +9695,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9750,7 +9752,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9807,7 +9809,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9869,7 +9871,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9931,7 +9933,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9993,7 +9995,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10050,7 +10052,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10107,7 +10109,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10164,7 +10166,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10221,7 +10223,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10278,7 +10280,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10335,7 +10337,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10417,7 +10419,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10479,7 +10481,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10541,7 +10543,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10603,7 +10605,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10660,7 +10662,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10722,7 +10724,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10784,7 +10786,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10841,7 +10843,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10903,7 +10905,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10960,7 +10962,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11017,7 +11019,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11079,7 +11081,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11136,7 +11138,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11193,7 +11195,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11250,7 +11252,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11307,7 +11309,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11364,7 +11366,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11421,7 +11423,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11478,7 +11480,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11535,7 +11537,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11592,7 +11594,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11649,7 +11651,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11706,7 +11708,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11763,7 +11765,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11825,7 +11827,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11882,7 +11884,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11939,7 +11941,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12001,7 +12003,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12058,7 +12060,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12120,7 +12122,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12177,7 +12179,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12234,7 +12236,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12291,7 +12293,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12353,7 +12355,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12410,7 +12412,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12467,7 +12469,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12524,7 +12526,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12581,7 +12583,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12638,7 +12640,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12700,7 +12702,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12757,7 +12759,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12814,7 +12816,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12871,7 +12873,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12928,7 +12930,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12985,7 +12987,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13042,7 +13044,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13099,7 +13101,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13156,7 +13158,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13213,7 +13215,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13270,7 +13272,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13332,7 +13334,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13389,7 +13391,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13451,7 +13453,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13508,7 +13510,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13565,7 +13567,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13622,7 +13624,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13684,7 +13686,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13741,7 +13743,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13798,7 +13800,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13855,7 +13857,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13912,7 +13914,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13969,7 +13971,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14026,7 +14028,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14083,7 +14085,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14140,7 +14142,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14197,7 +14199,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14254,7 +14256,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14311,7 +14313,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14373,7 +14375,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14430,7 +14432,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14492,7 +14494,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14549,7 +14551,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14606,7 +14608,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14668,7 +14670,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14725,7 +14727,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14787,7 +14789,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14849,7 +14851,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14911,7 +14913,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14968,7 +14970,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15030,7 +15032,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15087,7 +15089,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15144,7 +15146,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15201,7 +15203,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15258,7 +15260,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15315,7 +15317,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15377,7 +15379,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15434,7 +15436,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15491,7 +15493,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15548,7 +15550,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15605,7 +15607,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15667,7 +15669,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15729,7 +15731,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15791,7 +15793,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15853,7 +15855,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15915,7 +15917,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15977,7 +15979,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16034,7 +16036,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16091,7 +16093,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16148,7 +16150,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16205,7 +16207,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16262,7 +16264,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16319,7 +16321,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16381,7 +16383,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16443,7 +16445,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16505,7 +16507,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16562,7 +16564,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16624,7 +16626,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16681,7 +16683,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16738,7 +16740,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16795,7 +16797,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16857,7 +16859,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16919,7 +16921,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16981,7 +16983,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17043,7 +17045,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17100,7 +17102,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17162,7 +17164,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17224,7 +17226,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17281,7 +17283,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17343,7 +17345,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17405,7 +17407,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17467,7 +17469,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17524,7 +17526,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17581,7 +17583,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17638,7 +17640,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17695,7 +17697,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17757,7 +17759,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17819,7 +17821,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17881,7 +17883,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17943,7 +17945,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18005,7 +18007,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18067,7 +18069,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18124,7 +18126,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18181,7 +18183,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18238,7 +18240,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18295,7 +18297,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18352,7 +18354,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18409,7 +18411,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18466,7 +18468,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18528,7 +18530,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18585,7 +18587,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18647,7 +18649,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18709,7 +18711,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18766,7 +18768,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18823,7 +18825,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18880,7 +18882,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18937,7 +18939,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18999,7 +19001,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19061,7 +19063,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19118,7 +19120,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19180,7 +19182,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19237,7 +19239,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19294,7 +19296,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19351,7 +19353,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19408,7 +19410,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19465,7 +19467,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19522,7 +19524,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19579,7 +19581,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19636,7 +19638,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19698,7 +19700,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19760,7 +19762,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19817,7 +19819,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19879,7 +19881,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19941,7 +19943,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20003,7 +20005,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20065,7 +20067,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20127,7 +20129,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20189,7 +20191,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20246,7 +20248,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20303,7 +20305,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20360,7 +20362,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20417,7 +20419,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20479,7 +20481,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20536,7 +20538,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20593,7 +20595,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20650,7 +20652,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20707,7 +20709,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20764,7 +20766,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20821,7 +20823,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20878,7 +20880,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20935,7 +20937,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20992,7 +20994,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21049,7 +21051,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21106,7 +21108,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21163,7 +21165,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21220,7 +21222,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21277,7 +21279,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21334,7 +21336,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21391,7 +21393,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21448,7 +21450,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21505,7 +21507,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21562,7 +21564,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21619,7 +21621,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21676,7 +21678,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21733,7 +21735,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21790,7 +21792,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21847,7 +21849,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21904,7 +21906,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21961,7 +21963,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22018,7 +22020,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22075,7 +22077,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22132,7 +22134,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22189,7 +22191,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22246,7 +22248,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22303,7 +22305,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22360,7 +22362,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22417,7 +22419,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22474,7 +22476,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22531,7 +22533,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22588,7 +22590,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22645,7 +22647,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22702,7 +22704,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22759,7 +22761,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22816,7 +22818,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22873,7 +22875,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22935,7 +22937,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22992,7 +22994,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23049,7 +23051,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23106,7 +23108,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23168,7 +23170,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23225,7 +23227,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23282,7 +23284,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23339,7 +23341,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23396,7 +23398,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23453,7 +23455,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23510,7 +23512,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23567,7 +23569,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23624,7 +23626,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23681,7 +23683,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23738,7 +23740,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23795,7 +23797,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23857,7 +23859,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23919,7 +23921,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23976,7 +23978,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24038,7 +24040,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24100,7 +24102,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24157,7 +24159,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24219,7 +24221,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24281,7 +24283,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24343,7 +24345,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24400,7 +24402,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24457,7 +24459,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24519,7 +24521,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24576,7 +24578,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24638,7 +24640,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24695,7 +24697,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24757,7 +24759,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24819,7 +24821,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24881,7 +24883,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24938,7 +24940,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25000,7 +25002,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25062,7 +25064,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25124,7 +25126,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25186,7 +25188,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25243,7 +25245,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25305,7 +25307,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25367,7 +25369,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25431,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25488,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25543,7 +25545,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25600,7 +25602,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25657,7 +25659,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25714,7 +25716,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25771,7 +25773,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25833,7 +25835,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25890,7 +25892,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25952,7 +25954,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26016,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26076,7 +26078,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26133,7 +26135,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26190,7 +26192,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26247,7 +26249,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26304,7 +26306,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26361,7 +26363,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26418,7 +26420,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26475,7 +26477,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26534,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26591,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26648,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26705,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26762,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26819,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26876,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26933,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26990,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27045,7 +27047,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27102,7 +27104,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27166,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27223,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27278,7 +27280,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27335,7 +27337,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27399,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27456,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27513,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27570,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27627,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27684,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27741,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27798,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27855,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27912,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27969,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28026,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28083,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28140,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28197,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28254,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28311,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28371,7 +28373,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28433,7 +28435,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28490,7 +28492,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28552,7 +28554,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28609,7 +28611,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28666,7 +28668,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28723,7 +28725,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28785,7 +28787,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28847,7 +28849,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28904,7 +28906,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28966,7 +28968,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29023,7 +29025,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29085,7 +29087,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29142,7 +29144,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29199,7 +29201,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29256,7 +29258,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29313,7 +29315,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29375,7 +29377,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29432,7 +29434,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29489,7 +29491,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29546,7 +29548,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29603,7 +29605,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29660,7 +29662,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29717,7 +29719,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29774,7 +29776,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29831,7 +29833,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29888,7 +29890,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29945,7 +29947,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30002,7 +30004,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30084,7 +30086,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30141,7 +30143,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30198,7 +30200,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30260,7 +30262,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30317,7 +30319,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30379,7 +30381,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30436,7 +30438,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30493,7 +30495,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30550,7 +30552,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30607,7 +30609,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30664,7 +30666,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30721,7 +30723,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30778,7 +30780,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30835,7 +30837,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30892,7 +30894,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30949,7 +30951,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31006,7 +31008,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31063,7 +31065,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31120,7 +31122,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31182,7 +31184,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31239,7 +31241,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31296,7 +31298,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31353,7 +31355,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31415,7 +31417,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31477,7 +31479,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31534,7 +31536,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31591,7 +31593,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31648,7 +31650,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31705,7 +31707,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31762,7 +31764,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31824,7 +31826,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31881,7 +31883,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31938,7 +31940,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31995,7 +31997,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32052,7 +32054,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32109,7 +32111,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32166,7 +32168,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32223,7 +32225,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32280,7 +32282,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32337,7 +32339,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32399,7 +32401,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32481,7 +32483,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32538,7 +32540,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32595,7 +32597,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32652,7 +32654,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32709,7 +32711,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32766,7 +32768,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32823,7 +32825,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32880,7 +32882,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32937,7 +32939,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32994,7 +32996,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33051,7 +33053,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33108,7 +33110,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33165,7 +33167,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33222,7 +33224,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33279,7 +33281,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33336,7 +33338,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33393,7 +33395,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33450,7 +33452,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33507,7 +33509,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33564,7 +33566,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33621,7 +33623,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33678,7 +33680,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33735,7 +33737,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33792,7 +33794,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33849,7 +33851,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33906,7 +33908,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33963,7 +33965,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34020,7 +34022,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34077,7 +34079,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34134,7 +34136,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34191,7 +34193,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34248,7 +34250,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34305,7 +34307,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34362,7 +34364,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34419,7 +34421,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34476,7 +34478,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34533,7 +34535,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34590,7 +34592,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34647,7 +34649,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34704,7 +34706,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34766,7 +34768,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34823,7 +34825,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34880,7 +34882,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34937,7 +34939,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34994,7 +34996,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35051,7 +35053,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35108,7 +35110,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35165,7 +35167,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35222,7 +35224,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35284,7 +35286,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35346,7 +35348,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35408,7 +35410,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35470,7 +35472,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35527,7 +35529,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35584,7 +35586,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35641,7 +35643,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35698,7 +35700,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35760,7 +35762,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35822,7 +35824,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35879,7 +35881,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35936,7 +35938,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35993,7 +35995,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36050,7 +36052,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36112,7 +36114,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36174,7 +36176,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36236,7 +36238,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36293,7 +36295,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36350,7 +36352,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36412,7 +36414,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36469,7 +36471,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36526,7 +36528,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36588,7 +36590,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36650,7 +36652,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36712,7 +36714,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36774,7 +36776,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36831,7 +36833,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36888,7 +36890,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36945,7 +36947,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29947,7 +29947,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32339,7 +32339,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32597,7 +32597,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34421,7 +34421,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34478,7 +34478,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34592,7 +34592,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34768,7 +34768,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35053,7 +35053,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35762,7 +35762,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35938,7 +35938,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35995,7 +35995,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29947,7 +29947,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32339,7 +32339,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32597,7 +32597,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34421,7 +34421,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34478,7 +34478,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34592,7 +34592,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34768,7 +34768,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35053,7 +35053,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35762,7 +35762,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35938,7 +35938,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35995,7 +35995,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29947,7 +29947,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32339,7 +32339,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32597,7 +32597,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34421,7 +34421,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34478,7 +34478,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34592,7 +34592,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34768,7 +34768,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35053,7 +35053,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35762,7 +35762,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35938,7 +35938,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35995,7 +35995,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29947,7 +29947,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32339,7 +32339,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32597,7 +32597,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34421,7 +34421,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34478,7 +34478,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34592,7 +34592,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34768,7 +34768,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35053,7 +35053,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35762,7 +35762,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35938,7 +35938,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35995,7 +35995,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -642,31 +642,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 15457-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 15457-2019.xlsx", "A 15457-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 15457-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 15457-2019.png", "A 15457-2019")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 15457-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 15457-2019.png", "A 15457-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 15457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 15457-2019.docx", "A 15457-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 15457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 15457-2019.docx", "A 15457-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 15457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 15457-2019.docx", "A 15457-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 15457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 15457-2019.docx", "A 15457-2019")</f>
         <v/>
       </c>
     </row>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,31 +745,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 35425-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 35425-2019.xlsx", "A 35425-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 35425-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 35425-2019.png", "A 35425-2019")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 35425-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 35425-2019.png", "A 35425-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 35425-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 35425-2019.docx", "A 35425-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 35425-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 35425-2019.docx", "A 35425-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 35425-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 35425-2019.docx", "A 35425-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 35425-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 35425-2019.docx", "A 35425-2019")</f>
         <v/>
       </c>
     </row>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,31 +848,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60135-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60135-2022.xlsx", "A 60135-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60135-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60135-2022.png", "A 60135-2022")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 60135-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 60135-2022.png", "A 60135-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60135-2022.docx", "A 60135-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60135-2022.docx", "A 60135-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60135-2022.docx", "A 60135-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60135-2022.docx", "A 60135-2022")</f>
         <v/>
       </c>
     </row>
@@ -886,7 +886,7 @@
         <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,27 +950,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 27718-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 27718-2019.xlsx", "A 27718-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 27718-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 27718-2019.png", "A 27718-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 27718-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 27718-2019.docx", "A 27718-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 27718-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 27718-2019.docx", "A 27718-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 27718-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 27718-2019.docx", "A 27718-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 27718-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 27718-2019.docx", "A 27718-2019")</f>
         <v/>
       </c>
     </row>
@@ -984,7 +984,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,27 +1043,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 51534-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 51534-2019.xlsx", "A 51534-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 51534-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 51534-2019.png", "A 51534-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 51534-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 51534-2019.docx", "A 51534-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 51534-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 51534-2019.docx", "A 51534-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 51534-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 51534-2019.docx", "A 51534-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 51534-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 51534-2019.docx", "A 51534-2019")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,27 +1140,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60128-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60128-2022.xlsx", "A 60128-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60128-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60128-2022.png", "A 60128-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60128-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60128-2022.docx", "A 60128-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60128-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60128-2022.docx", "A 60128-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60128-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60128-2022.docx", "A 60128-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60128-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60128-2022.docx", "A 60128-2022")</f>
         <v/>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,27 +1231,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 35869-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 35869-2023.xlsx", "A 35869-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 35869-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 35869-2023.png", "A 35869-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 35869-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 35869-2023.docx", "A 35869-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 35869-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 35869-2023.docx", "A 35869-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 35869-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 35869-2023.docx", "A 35869-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 35869-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 35869-2023.docx", "A 35869-2023")</f>
         <v/>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,31 +1320,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 7015-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 7015-2021.xlsx", "A 7015-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 7015-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 7015-2021.png", "A 7015-2021")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 7015-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 7015-2021.png", "A 7015-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 7015-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 7015-2021.docx", "A 7015-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 7015-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 7015-2021.docx", "A 7015-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 7015-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 7015-2021.docx", "A 7015-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 7015-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 7015-2021.docx", "A 7015-2021")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1412,31 +1412,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 10658-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 10658-2022.xlsx", "A 10658-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 10658-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 10658-2022.png", "A 10658-2022")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 10658-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 10658-2022.png", "A 10658-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 10658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 10658-2022.docx", "A 10658-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 10658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 10658-2022.docx", "A 10658-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 10658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 10658-2022.docx", "A 10658-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 10658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 10658-2022.docx", "A 10658-2022")</f>
         <v/>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,27 +1503,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 29322-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 29322-2019.xlsx", "A 29322-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 29322-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 29322-2019.png", "A 29322-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 29322-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 29322-2019.docx", "A 29322-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 29322-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 29322-2019.docx", "A 29322-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 29322-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 29322-2019.docx", "A 29322-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 29322-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 29322-2019.docx", "A 29322-2019")</f>
         <v/>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,31 +1595,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 35415-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 35415-2019.xlsx", "A 35415-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 35415-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 35415-2019.png", "A 35415-2019")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 35415-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 35415-2019.png", "A 35415-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 35415-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 35415-2019.docx", "A 35415-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 35415-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 35415-2019.docx", "A 35415-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 35415-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 35415-2019.docx", "A 35415-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 35415-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 35415-2019.docx", "A 35415-2019")</f>
         <v/>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,27 +1686,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 59449-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 59449-2020.xlsx", "A 59449-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 59449-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 59449-2020.png", "A 59449-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 59449-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 59449-2020.docx", "A 59449-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 59449-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 59449-2020.docx", "A 59449-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 59449-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 59449-2020.docx", "A 59449-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 59449-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 59449-2020.docx", "A 59449-2020")</f>
         <v/>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1773,27 +1773,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 44438-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 44438-2021.xlsx", "A 44438-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 44438-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 44438-2021.png", "A 44438-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 44438-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 44438-2021.docx", "A 44438-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 44438-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 44438-2021.docx", "A 44438-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 44438-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 44438-2021.docx", "A 44438-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 44438-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 44438-2021.docx", "A 44438-2021")</f>
         <v/>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,27 +1865,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60133-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60133-2022.xlsx", "A 60133-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60133-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60133-2022.png", "A 60133-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60133-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60133-2022.docx", "A 60133-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60133-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60133-2022.docx", "A 60133-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60133-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60133-2022.docx", "A 60133-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60133-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60133-2022.docx", "A 60133-2022")</f>
         <v/>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1957,27 +1957,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60127-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60127-2022.xlsx", "A 60127-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60127-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60127-2022.png", "A 60127-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60127-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60127-2022.docx", "A 60127-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60127-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60127-2022.docx", "A 60127-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60127-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60127-2022.docx", "A 60127-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60127-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60127-2022.docx", "A 60127-2022")</f>
         <v/>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2044,27 +2044,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 30522-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 30522-2023.xlsx", "A 30522-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 30522-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 30522-2023.png", "A 30522-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 30522-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 30522-2023.docx", "A 30522-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 30522-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 30522-2023.docx", "A 30522-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 30522-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 30522-2023.docx", "A 30522-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 30522-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 30522-2023.docx", "A 30522-2023")</f>
         <v/>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2130,27 +2130,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 16832-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 16832-2023.xlsx", "A 16832-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 16832-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 16832-2023.png", "A 16832-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 16832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 16832-2023.docx", "A 16832-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 16832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 16832-2023.docx", "A 16832-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 16832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 16832-2023.docx", "A 16832-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 16832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 16832-2023.docx", "A 16832-2023")</f>
         <v/>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2215,27 +2215,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 67943-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 67943-2018.xlsx", "A 67943-2018")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 67943-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 67943-2018.png", "A 67943-2018")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 67943-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 67943-2018.docx", "A 67943-2018")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 67943-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 67943-2018.docx", "A 67943-2018")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 67943-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 67943-2018.docx", "A 67943-2018")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 67943-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 67943-2018.docx", "A 67943-2018")</f>
         <v/>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2300,27 +2300,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 6043-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 6043-2019.xlsx", "A 6043-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 6043-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 6043-2019.png", "A 6043-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 6043-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 6043-2019.docx", "A 6043-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 6043-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 6043-2019.docx", "A 6043-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 6043-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 6043-2019.docx", "A 6043-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 6043-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 6043-2019.docx", "A 6043-2019")</f>
         <v/>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2385,27 +2385,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 29197-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 29197-2019.xlsx", "A 29197-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 29197-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 29197-2019.png", "A 29197-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 29197-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 29197-2019.docx", "A 29197-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 29197-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 29197-2019.docx", "A 29197-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 29197-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 29197-2019.docx", "A 29197-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 29197-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 29197-2019.docx", "A 29197-2019")</f>
         <v/>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2470,27 +2470,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 43002-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 43002-2019.xlsx", "A 43002-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 43002-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 43002-2019.png", "A 43002-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 43002-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 43002-2019.docx", "A 43002-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 43002-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 43002-2019.docx", "A 43002-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 43002-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 43002-2019.docx", "A 43002-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 43002-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 43002-2019.docx", "A 43002-2019")</f>
         <v/>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2555,27 +2555,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 45867-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 45867-2020.xlsx", "A 45867-2020")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 45867-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 45867-2020.png", "A 45867-2020")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 45867-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 45867-2020.docx", "A 45867-2020")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 45867-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 45867-2020.docx", "A 45867-2020")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 45867-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 45867-2020.docx", "A 45867-2020")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 45867-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 45867-2020.docx", "A 45867-2020")</f>
         <v/>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2640,27 +2640,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 29527-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 29527-2021.xlsx", "A 29527-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 29527-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 29527-2021.png", "A 29527-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 29527-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 29527-2021.docx", "A 29527-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 29527-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 29527-2021.docx", "A 29527-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 29527-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 29527-2021.docx", "A 29527-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 29527-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 29527-2021.docx", "A 29527-2021")</f>
         <v/>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2730,27 +2730,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 39484-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 39484-2021.xlsx", "A 39484-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 39484-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 39484-2021.png", "A 39484-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 39484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 39484-2021.docx", "A 39484-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 39484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 39484-2021.docx", "A 39484-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 39484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 39484-2021.docx", "A 39484-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 39484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 39484-2021.docx", "A 39484-2021")</f>
         <v/>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2815,27 +2815,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60477-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60477-2021.xlsx", "A 60477-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60477-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60477-2021.png", "A 60477-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60477-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60477-2021.docx", "A 60477-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60477-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60477-2021.docx", "A 60477-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60477-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60477-2021.docx", "A 60477-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60477-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60477-2021.docx", "A 60477-2021")</f>
         <v/>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2905,27 +2905,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60707-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 60707-2021.xlsx", "A 60707-2021")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60707-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 60707-2021.png", "A 60707-2021")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60707-2021.docx", "A 60707-2021")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60707-2021.docx", "A 60707-2021")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60707-2021.docx", "A 60707-2021")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60707-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60707-2021.docx", "A 60707-2021")</f>
         <v/>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,27 +2990,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 64451-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 64451-2021.xlsx", "A 64451-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 64451-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 64451-2021.png", "A 64451-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 64451-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 64451-2021.docx", "A 64451-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 64451-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 64451-2021.docx", "A 64451-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 64451-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 64451-2021.docx", "A 64451-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 64451-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 64451-2021.docx", "A 64451-2021")</f>
         <v/>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,31 +3080,31 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 734-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 734-2022.xlsx", "A 734-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 734-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 734-2022.png", "A 734-2022")</f>
         <v/>
       </c>
       <c r="U29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 734-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 734-2022.png", "A 734-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 734-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 734-2022.docx", "A 734-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 734-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 734-2022.docx", "A 734-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 734-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 734-2022.docx", "A 734-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 734-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 734-2022.docx", "A 734-2022")</f>
         <v/>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3174,27 +3174,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 47962-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 47962-2022.xlsx", "A 47962-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 47962-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 47962-2022.png", "A 47962-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 47962-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 47962-2022.docx", "A 47962-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 47962-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 47962-2022.docx", "A 47962-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 47962-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 47962-2022.docx", "A 47962-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 47962-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 47962-2022.docx", "A 47962-2022")</f>
         <v/>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3264,27 +3264,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 56806-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 56806-2022.xlsx", "A 56806-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 56806-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 56806-2022.png", "A 56806-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 56806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 56806-2022.docx", "A 56806-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 56806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 56806-2022.docx", "A 56806-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 56806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 56806-2022.docx", "A 56806-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 56806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 56806-2022.docx", "A 56806-2022")</f>
         <v/>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3354,27 +3354,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 61983-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 61983-2022.xlsx", "A 61983-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 61983-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 61983-2022.png", "A 61983-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 61983-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 61983-2022.docx", "A 61983-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 61983-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 61983-2022.docx", "A 61983-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 61983-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 61983-2022.docx", "A 61983-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 61983-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 61983-2022.docx", "A 61983-2022")</f>
         <v/>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3439,27 +3439,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 10247-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 10247-2023.xlsx", "A 10247-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 10247-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 10247-2023.png", "A 10247-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 10247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 10247-2023.docx", "A 10247-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 10247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 10247-2023.docx", "A 10247-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 10247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 10247-2023.docx", "A 10247-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 10247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 10247-2023.docx", "A 10247-2023")</f>
         <v/>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3524,27 +3524,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 23707-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/artfynd/A 23707-2023.xlsx", "A 23707-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 23707-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/kartor/A 23707-2023.png", "A 23707-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 23707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 23707-2023.docx", "A 23707-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 23707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 23707-2023.docx", "A 23707-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 23707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 23707-2023.docx", "A 23707-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 23707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 23707-2023.docx", "A 23707-2023")</f>
         <v/>
       </c>
     </row>
@@ -3558,7 +3558,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10389,23 +10389,23 @@
       </c>
       <c r="R152" s="2" t="inlineStr"/>
       <c r="U152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 35410-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 35410-2019.png", "A 35410-2019")</f>
         <v/>
       </c>
       <c r="V152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 35410-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 35410-2019.docx", "A 35410-2019")</f>
         <v/>
       </c>
       <c r="W152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 35410-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 35410-2019.docx", "A 35410-2019")</f>
         <v/>
       </c>
       <c r="X152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 35410-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 35410-2019.docx", "A 35410-2019")</f>
         <v/>
       </c>
       <c r="Y152">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 35410-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 35410-2019.docx", "A 35410-2019")</f>
         <v/>
       </c>
     </row>
@@ -10419,7 +10419,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29947,7 +29947,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30056,23 +30056,23 @@
       </c>
       <c r="R488" s="2" t="inlineStr"/>
       <c r="U488">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 37018-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 37018-2022.png", "A 37018-2022")</f>
         <v/>
       </c>
       <c r="V488">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 37018-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 37018-2022.docx", "A 37018-2022")</f>
         <v/>
       </c>
       <c r="W488">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 37018-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 37018-2022.docx", "A 37018-2022")</f>
         <v/>
       </c>
       <c r="X488">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 37018-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 37018-2022.docx", "A 37018-2022")</f>
         <v/>
       </c>
       <c r="Y488">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 37018-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 37018-2022.docx", "A 37018-2022")</f>
         <v/>
       </c>
     </row>
@@ -30086,7 +30086,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32339,7 +32339,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32453,23 +32453,23 @@
       </c>
       <c r="R529" s="2" t="inlineStr"/>
       <c r="U529">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 60126-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/knärot/A 60126-2022.png", "A 60126-2022")</f>
         <v/>
       </c>
       <c r="V529">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60126-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomål/A 60126-2022.docx", "A 60126-2022")</f>
         <v/>
       </c>
       <c r="W529">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60126-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/klagomålsmail/A 60126-2022.docx", "A 60126-2022")</f>
         <v/>
       </c>
       <c r="X529">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60126-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsyn/A 60126-2022.docx", "A 60126-2022")</f>
         <v/>
       </c>
       <c r="Y529">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60126-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_RATTVIK/tillsynsmail/A 60126-2022.docx", "A 60126-2022")</f>
         <v/>
       </c>
     </row>
@@ -32483,7 +32483,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32597,7 +32597,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34421,7 +34421,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34478,7 +34478,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34592,7 +34592,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34768,7 +34768,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35053,7 +35053,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35762,7 +35762,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35938,7 +35938,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35995,7 +35995,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29947,7 +29947,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32339,7 +32339,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32597,7 +32597,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34421,7 +34421,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34478,7 +34478,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34592,7 +34592,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34768,7 +34768,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35053,7 +35053,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35762,7 +35762,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35938,7 +35938,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35995,7 +35995,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29947,7 +29947,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32339,7 +32339,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32597,7 +32597,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34421,7 +34421,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34478,7 +34478,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34592,7 +34592,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34768,7 +34768,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35053,7 +35053,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35762,7 +35762,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35938,7 +35938,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35995,7 +35995,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29947,7 +29947,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32339,7 +32339,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32597,7 +32597,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34421,7 +34421,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34478,7 +34478,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34592,7 +34592,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34768,7 +34768,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35053,7 +35053,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35762,7 +35762,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35938,7 +35938,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35995,7 +35995,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y607"/>
+  <dimension ref="A1:Y608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         <v>44909</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>43619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45147</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43634</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43663</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>44435</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45033</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43440</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43705</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>44088</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44361</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44414</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44511</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44568</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>44894</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>44918</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44986</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>43361</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>43362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>43362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43369</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43373</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43381</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43388</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43391</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43399</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43401</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43405</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43410</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43411</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43416</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43428</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
         <v>43432</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>43432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43441</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>43447</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>43448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>43451</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>43451</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43455</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43461</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43471</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7204,7 +7204,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>43475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43495</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43499</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43500</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>43511</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>43511</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>43514</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>43517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>43524</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43546</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43553</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43554</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43559</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43566</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43570</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>43570</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43585</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         <v>43587</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>43592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         <v>43592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>43599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>43609</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>43612</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>43612</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>43616</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>43619</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>43621</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>43623</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43628</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>43628</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>43629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>43630</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>43633</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43633</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>43641</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>43643</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>43643</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>43647</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43651</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43651</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43656</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43657</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43662</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43662</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43663</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43663</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43686</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43686</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>43689</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43690</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43700</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>43700</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43705</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>43711</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43714</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43717</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43718</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43724</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43726</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43727</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>43732</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>43734</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>43735</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43740</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43742</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43747</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43758</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43761</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43767</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43770</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43775</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43776</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43780</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>43786</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>43797</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43804</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43812</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43829</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43833</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43837</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43839</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43843</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43845</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43850</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43854</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43857</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>43864</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43871</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43872</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43878</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43879</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>43880</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>43894</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>43902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>43917</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>43920</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>43924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>43927</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>43928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>43930</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>43933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43937</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43941</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43948</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43949</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>43950</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>43951</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>43959</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>43969</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>43970</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>43973</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>43985</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>43990</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>43991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>44005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44033</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>44039</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44048</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18240,7 +18240,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44054</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44055</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44067</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44077</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44078</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44082</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44084</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>44089</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44091</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44095</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44097</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44102</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44104</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44109</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>44110</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44117</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44126</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20191,7 +20191,7 @@
         <v>44130</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20305,7 +20305,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44131</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44133</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44137</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44139</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>44141</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>44145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>44151</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44153</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>44160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44161</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44173</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44175</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>44179</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21678,7 +21678,7 @@
         <v>44180</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>44186</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44194</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44195</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44214</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>44217</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44228</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>44242</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44271</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>44273</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>44280</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>44281</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>44284</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44300</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44306</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44322</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44326</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44336</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44347</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44348</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>44349</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>44350</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44351</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44363</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44377</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44386</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>44399</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>44408</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>44414</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44418</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44420</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44421</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44424</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44432</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44441</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24759,7 +24759,7 @@
         <v>44449</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44451</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44454</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44459</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44461</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44463</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44470</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>44473</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>44474</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>44477</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44484</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44488</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44495</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44496</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44503</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44511</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44512</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44524</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44533</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>44537</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44544</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>44551</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44559</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>44562</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44565</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>44572</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>44578</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>44602</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>44610</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>44620</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44621</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>44627</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>44637</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44638</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>44641</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44644</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>44651</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>44680</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>44684</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>44692</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>44701</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>44719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44727</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44728</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44729</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>44732</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>44735</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28554,7 +28554,7 @@
         <v>44736</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28611,7 +28611,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28668,7 +28668,7 @@
         <v>44746</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>44747</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>44748</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44749</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44762</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44774</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>44775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>44783</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>44791</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>44795</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29719,7 +29719,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29776,7 +29776,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29833,7 +29833,7 @@
         <v>44803</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29890,7 +29890,7 @@
         <v>44806</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29947,7 +29947,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30004,7 +30004,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>44817</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44818</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44819</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>44823</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>44824</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>44834</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>44837</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>44840</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44841</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31184,7 +31184,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31241,7 +31241,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44847</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44855</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31417,7 +31417,7 @@
         <v>44860</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31479,7 +31479,7 @@
         <v>44866</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44868</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44872</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44873</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>44874</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32339,7 +32339,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32597,7 +32597,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32711,7 +32711,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32768,7 +32768,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32825,7 +32825,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32882,7 +32882,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32939,7 +32939,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33851,7 +33851,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34421,7 +34421,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34478,7 +34478,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34535,7 +34535,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34592,7 +34592,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34649,7 +34649,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34768,7 +34768,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34825,7 +34825,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35053,7 +35053,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35762,7 +35762,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35938,7 +35938,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35995,7 +35995,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36590,7 +36590,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36652,7 +36652,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36937,7 +36937,7 @@
       </c>
       <c r="R606" s="2" t="inlineStr"/>
     </row>
-    <row r="607">
+    <row r="607" ht="15" customHeight="1">
       <c r="A607" t="inlineStr">
         <is>
           <t>A 40337-2023</t>
@@ -36947,7 +36947,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36993,6 +36993,63 @@
         <v>0</v>
       </c>
       <c r="R607" s="2" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>A 44733-2023</t>
+        </is>
+      </c>
+      <c r="B608" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C608" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>RÄTTVIK</t>
+        </is>
+      </c>
+      <c r="G608" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="n">
+        <v>0</v>
+      </c>
+      <c r="J608" t="n">
+        <v>0</v>
+      </c>
+      <c r="K608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N608" t="n">
+        <v>0</v>
+      </c>
+      <c r="O608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R608" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y608"/>
+  <dimension ref="A1:Y609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43619</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44909</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>44874</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44237</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44624</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44435</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44909</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>43700</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45033</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>43440</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43493</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43623</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43705</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44361</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44414</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44511</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44568</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44855</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44894</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44918</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44986</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>45077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43362</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43362</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43367</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43373</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43378</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43388</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43388</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43391</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43398</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43399</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43401</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43405</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43410</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43410</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43412</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43416</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43424</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43428</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43430</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43432</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43432</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43434</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43438</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43441</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43447</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43448</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43452</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43455</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43461</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43471</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43472</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43490</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43495</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43499</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43500</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43511</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43511</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43514</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43524</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43553</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43553</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43554</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>43559</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43564</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43566</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43570</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43570</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43584</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43585</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43587</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43599</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43612</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43619</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>43623</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>43628</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43628</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43633</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43643</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43643</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43647</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43651</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>43651</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>43656</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>43657</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43662</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43686</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43686</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43689</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43690</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43700</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43705</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43711</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43712</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43713</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43714</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43718</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43724</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43726</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43734</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43735</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43740</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43742</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43747</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43758</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43761</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43766</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43767</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43770</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43775</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43776</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43780</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43783</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>43786</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>43797</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>43804</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43805</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43829</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43833</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43837</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43839</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43843</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43845</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43850</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43854</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43857</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43864</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>43867</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>43871</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>43872</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43873</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43874</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43878</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43879</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>43880</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>43894</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>43902</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>43917</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43920</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43921</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43922</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43924</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>43927</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43928</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43930</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43933</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43935</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>43937</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>43941</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>43948</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43949</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43950</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43951</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43959</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>43969</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43973</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43985</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43990</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43991</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44033</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44039</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44048</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44053</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44054</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44055</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44067</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44078</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44082</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44084</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44089</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44091</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44095</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44097</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44102</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44104</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44109</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44110</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44117</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20132,7 +20132,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44126</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>44130</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44131</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>44133</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44137</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44139</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44141</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44145</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44151</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44159</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44161</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44162</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44173</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44175</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44179</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44180</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44194</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44195</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44214</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44217</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44228</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44242</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44271</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44273</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44280</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>44281</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44284</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44300</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44306</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>44307</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>44326</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>44336</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44347</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44348</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44349</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44350</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44351</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44363</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44377</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>44386</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44408</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>44414</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24472,7 +24472,7 @@
         <v>44418</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>44420</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>44421</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44424</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>44432</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44441</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44449</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24948,7 +24948,7 @@
         <v>44451</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44459</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44461</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44463</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44470</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44473</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44474</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44477</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44484</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44488</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26143,7 +26143,7 @@
         <v>44495</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44496</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44503</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44511</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44512</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44519</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44524</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44529</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44533</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44537</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44544</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44551</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44552</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44562</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44578</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44602</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>44620</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44621</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44627</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44637</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>44638</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44641</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44644</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44651</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>44680</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>44684</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44692</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44701</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44719</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44727</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44728</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44729</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28562,7 +28562,7 @@
         <v>44732</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44735</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44736</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44740</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44746</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44747</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>44748</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29328,7 +29328,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44762</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44774</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>44775</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>44783</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44791</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44795</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44798</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>44803</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>44806</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>44817</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30446,7 +30446,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30622,7 +30622,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30679,7 +30679,7 @@
         <v>44818</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30736,7 +30736,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30793,7 +30793,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30850,7 +30850,7 @@
         <v>44819</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>44823</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30964,7 +30964,7 @@
         <v>44824</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>44834</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31135,7 +31135,7 @@
         <v>44837</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>44840</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>44841</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>44847</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>44860</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44868</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44872</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44873</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33118,7 +33118,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33175,7 +33175,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33232,7 +33232,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33973,7 +33973,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34030,7 +34030,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34087,7 +34087,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34144,7 +34144,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34201,7 +34201,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34258,7 +34258,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34315,7 +34315,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34372,7 +34372,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34429,7 +34429,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34486,7 +34486,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34543,7 +34543,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34657,7 +34657,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34771,7 +34771,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34833,7 +34833,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35004,7 +35004,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35175,7 +35175,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35232,7 +35232,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35289,7 +35289,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35351,7 +35351,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35537,7 +35537,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35827,7 +35827,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36655,7 +36655,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36841,7 +36841,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37012,7 +37012,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
       </c>
       <c r="R607" s="2" t="inlineStr"/>
     </row>
-    <row r="608">
+    <row r="608" ht="15" customHeight="1">
       <c r="A608" t="inlineStr">
         <is>
           <t>A 44733-2023</t>
@@ -37069,7 +37069,7 @@
         <v>45190</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37115,6 +37115,63 @@
         <v>0</v>
       </c>
       <c r="R608" s="2" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>A 46948-2023</t>
+        </is>
+      </c>
+      <c r="B609" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C609" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>RÄTTVIK</t>
+        </is>
+      </c>
+      <c r="G609" t="n">
+        <v>1</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="n">
+        <v>0</v>
+      </c>
+      <c r="J609" t="n">
+        <v>0</v>
+      </c>
+      <c r="K609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N609" t="n">
+        <v>0</v>
+      </c>
+      <c r="O609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R609" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43619</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44909</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>44874</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44237</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44624</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44435</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44909</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>43700</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45033</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>43440</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43493</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43623</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43705</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44361</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44414</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44511</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44568</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44855</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44894</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44918</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44986</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>45077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43362</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43362</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43367</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43373</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43378</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43388</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43388</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43391</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43398</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43399</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43401</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43405</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43410</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43410</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43412</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43416</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43424</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43428</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43430</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43432</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43432</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43434</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43438</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43441</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43447</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43448</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43452</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43455</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43461</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43471</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43472</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43490</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43495</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43499</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43500</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43511</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43511</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43514</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43524</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43553</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43553</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43554</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>43559</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43564</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43566</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43570</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43570</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43584</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43585</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43587</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43599</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43612</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43619</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>43623</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>43628</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43628</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43633</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43643</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43643</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43647</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43651</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>43651</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>43656</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>43657</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43662</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43686</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43686</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43689</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43690</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43700</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43705</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43711</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43712</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43713</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43714</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43718</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43724</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43726</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43734</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>43735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43735</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>43740</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43740</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43740</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43740</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43742</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43742</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>43747</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43758</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43761</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43766</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43767</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43770</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43770</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43775</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43776</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43776</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>43776</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>43776</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>43780</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>43780</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43780</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43783</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>43786</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>43797</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>43804</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43805</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43812</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43812</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43829</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43833</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43837</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43839</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43843</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43845</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>43850</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43854</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43857</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43857</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43857</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43864</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43864</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>43864</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>43867</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>43871</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>43872</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43873</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43873</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43874</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43878</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43879</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>43880</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>43894</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>43902</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>43917</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>43920</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>43920</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>43921</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43922</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43924</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43924</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43927</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>43927</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43928</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43928</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43930</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43933</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43935</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>43937</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>43941</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>43941</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>43948</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>43949</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>43949</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43949</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>43949</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43950</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43951</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>43959</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43959</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43959</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>43969</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43970</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>43973</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>43985</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>43990</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>43991</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>43991</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>43991</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43991</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43991</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44033</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44039</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44048</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44053</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>44053</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44054</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44054</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44054</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44055</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44055</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44067</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44078</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44078</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44082</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44084</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44089</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44091</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44095</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44097</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44102</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44104</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44109</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44109</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44109</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44110</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44117</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44126</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44126</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20132,7 +20132,7 @@
         <v>44126</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44126</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44126</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44130</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>44130</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>44130</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>44131</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>44133</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>44137</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44139</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44139</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44141</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44145</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>44151</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44151</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44153</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21121,7 +21121,7 @@
         <v>44159</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>44159</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44159</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44161</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44162</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>44173</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>44175</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44179</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>44179</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>44180</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>44185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>44186</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44194</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>44195</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44214</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22147,7 +22147,7 @@
         <v>44214</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>44217</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44217</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>44228</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44228</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22432,7 +22432,7 @@
         <v>44242</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
         <v>44271</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         <v>44273</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22603,7 +22603,7 @@
         <v>44280</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>44281</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>44284</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44284</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44300</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44306</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>44307</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44322</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44326</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>44326</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23235,7 +23235,7 @@
         <v>44336</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44347</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44347</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44348</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44348</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44349</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44349</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44350</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44351</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44351</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44363</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44377</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         <v>44377</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44377</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44386</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>44386</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24229,7 +24229,7 @@
         <v>44399</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>44408</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>44414</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>44414</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24472,7 +24472,7 @@
         <v>44418</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>44420</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>44421</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44424</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>44432</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44441</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44441</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44449</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24948,7 +24948,7 @@
         <v>44451</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25010,7 +25010,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44459</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44459</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44459</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44459</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44461</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44463</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25434,7 +25434,7 @@
         <v>44470</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44470</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44470</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44473</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44474</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44477</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44477</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44477</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44484</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44488</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44495</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>44495</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26143,7 +26143,7 @@
         <v>44495</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44496</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44503</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44511</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44512</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44519</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44524</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44529</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44529</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44529</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44529</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44533</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44537</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44544</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44551</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44552</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44559</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44562</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44565</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44572</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44578</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44602</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44610</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>44620</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44621</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44627</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44637</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44638</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44638</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>44638</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27925,7 +27925,7 @@
         <v>44641</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44644</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44651</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>44680</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>44684</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>44692</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44701</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44719</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44727</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44728</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44729</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28562,7 +28562,7 @@
         <v>44732</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>44735</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44736</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44740</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44746</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44747</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28914,7 +28914,7 @@
         <v>44747</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>44747</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>44747</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44747</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44747</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>44748</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29328,7 +29328,7 @@
         <v>44762</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>44762</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>44774</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44775</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>44775</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>44783</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>44791</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44791</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44795</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44798</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44798</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>44803</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>44806</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>44806</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>44806</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44806</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>44806</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>44817</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44818</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30446,7 +30446,7 @@
         <v>44818</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44818</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44818</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30622,7 +30622,7 @@
         <v>44818</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30679,7 +30679,7 @@
         <v>44818</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30736,7 +30736,7 @@
         <v>44819</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30793,7 +30793,7 @@
         <v>44819</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30850,7 +30850,7 @@
         <v>44819</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>44823</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30964,7 +30964,7 @@
         <v>44824</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>44834</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>44834</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31135,7 +31135,7 @@
         <v>44837</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>44840</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44841</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>44841</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>44841</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>44847</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>44855</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>44860</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44866</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44868</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>44872</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>44873</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>44873</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31891,7 +31891,7 @@
         <v>44874</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>44875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>44882</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         <v>44887</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32119,7 +32119,7 @@
         <v>44890</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32176,7 +32176,7 @@
         <v>44897</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>44903</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>44907</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>44909</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>44909</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>44909</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>44911</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44911</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44911</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44911</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>44914</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44914</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44916</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>44916</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44922</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>44929</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33118,7 +33118,7 @@
         <v>44930</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33175,7 +33175,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33232,7 +33232,7 @@
         <v>44930</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>44930</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         <v>44945</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44956</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44964</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44964</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44967</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44967</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44967</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44967</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44970</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>44977</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33973,7 +33973,7 @@
         <v>44982</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34030,7 +34030,7 @@
         <v>45019</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34087,7 +34087,7 @@
         <v>45019</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34144,7 +34144,7 @@
         <v>45021</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34201,7 +34201,7 @@
         <v>45027</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34258,7 +34258,7 @@
         <v>45033</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34315,7 +34315,7 @@
         <v>45042</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34372,7 +34372,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34429,7 +34429,7 @@
         <v>45070</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34486,7 +34486,7 @@
         <v>45071</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34543,7 +34543,7 @@
         <v>45071</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34600,7 +34600,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34657,7 +34657,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34714,7 +34714,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34771,7 +34771,7 @@
         <v>45072</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34833,7 +34833,7 @@
         <v>45072</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34890,7 +34890,7 @@
         <v>45072</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34947,7 +34947,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35004,7 +35004,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45077</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35175,7 +35175,7 @@
         <v>45085</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35232,7 +35232,7 @@
         <v>45090</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35289,7 +35289,7 @@
         <v>45093</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35351,7 +35351,7 @@
         <v>45093</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35413,7 +35413,7 @@
         <v>45097</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>45097</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35537,7 +35537,7 @@
         <v>45104</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45105</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45107</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45107</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45112</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35827,7 +35827,7 @@
         <v>45112</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>45112</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>45112</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>45114</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>45114</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45131</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45131</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>45138</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>45139</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>45139</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>45145</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>45148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>45159</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>45159</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36655,7 +36655,7 @@
         <v>45160</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>45160</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>45161</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36841,7 +36841,7 @@
         <v>45167</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>45168</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45168</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37012,7 +37012,7 @@
         <v>45168</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37069,7 +37069,7 @@
         <v>45190</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37126,7 +37126,7 @@
         <v>45201</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>

--- a/Översikt RÄTTVIK.xlsx
+++ b/Översikt RÄTTVIK.xlsx
@@ -572,7 +572,7 @@
         <v>43542</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43663</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43619</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44909</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>44909</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         <v>44874</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44237</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44624</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>43663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44435</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44909</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>43700</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45033</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>43440</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43493</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43623</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43705</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44088</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44361</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44414</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44511</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>44568</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44855</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44894</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44918</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44986</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>45077</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43362</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43362</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43362</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43362</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43367</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43373</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43378</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>43388</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43388</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43388</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43391</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43398</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43399</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43401</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43405</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43410</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43410</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43411</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43412</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43416</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43416</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43419</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43423</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43424</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43427</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43428</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43428</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43430</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43430</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43432</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43432</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43434</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43438</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43441</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43447</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43448</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43451</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43451</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43451</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43452</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43455</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43461</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43471</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43472</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>43473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>43475</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>43490</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>43495</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43499</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>43500</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43511</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43511</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43514</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43517</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43524</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43546</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43553</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43553</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43554</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>43556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>43559</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43564</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43566</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>43570</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43570</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43570</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43584</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43585</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43587</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43599</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43612</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43612</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43619</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>43623</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>43628</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43628</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43633</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43641</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43643</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43643</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43647</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43651</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>43651</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>43656</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>43657</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>43662</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>43662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>43663</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43663</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>43686</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>43686</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43689</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43690</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43700</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43705</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43711</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43712</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43713</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43714</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43714</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43717</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43718</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43724</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43726</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43734</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>43734</v>
       </c>
       <c r="C179" s="1" 